--- a/Transformer/result/daqingyoutian_result_DEN.xlsx
+++ b/Transformer/result/daqingyoutian_result_DEN.xlsx
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.361390352249146</v>
+        <v>2.360858917236328</v>
       </c>
       <c r="B3" t="n">
         <v>2.362</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.373669624328613</v>
+        <v>2.373065948486328</v>
       </c>
       <c r="B4" t="n">
         <v>2.373</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.377520084381104</v>
+        <v>2.376378059387207</v>
       </c>
       <c r="B5" t="n">
         <v>2.377</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.379647016525269</v>
+        <v>2.378710508346558</v>
       </c>
       <c r="B6" t="n">
         <v>2.379</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.387143611907959</v>
+        <v>2.384735345840454</v>
       </c>
       <c r="B7" t="n">
         <v>2.387</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.399391651153564</v>
+        <v>2.395273685455322</v>
       </c>
       <c r="B8" t="n">
         <v>2.396</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.410192012786865</v>
+        <v>2.406119108200073</v>
       </c>
       <c r="B9" t="n">
         <v>2.403</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.413278341293335</v>
+        <v>2.409595727920532</v>
       </c>
       <c r="B10" t="n">
         <v>2.406</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.406349658966064</v>
+        <v>2.398921012878418</v>
       </c>
       <c r="B11" t="n">
         <v>2.402</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.39158821105957</v>
+        <v>2.387070417404175</v>
       </c>
       <c r="B12" t="n">
         <v>2.387</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.372336864471436</v>
+        <v>2.371696472167969</v>
       </c>
       <c r="B13" t="n">
         <v>2.37</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.350577354431152</v>
+        <v>2.350097179412842</v>
       </c>
       <c r="B14" t="n">
         <v>2.349</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.322822570800781</v>
+        <v>2.322409152984619</v>
       </c>
       <c r="B15" t="n">
         <v>2.316</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.287021398544312</v>
+        <v>2.290147066116333</v>
       </c>
       <c r="B16" t="n">
         <v>2.283</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.249744415283203</v>
+        <v>2.254435539245605</v>
       </c>
       <c r="B17" t="n">
         <v>2.245</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.221116781234741</v>
+        <v>2.228979825973511</v>
       </c>
       <c r="B18" t="n">
         <v>2.221</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.20825457572937</v>
+        <v>2.215474605560303</v>
       </c>
       <c r="B19" t="n">
         <v>2.207</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.20868182182312</v>
+        <v>2.218363046646118</v>
       </c>
       <c r="B20" t="n">
         <v>2.212</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.214197635650635</v>
+        <v>2.221397638320923</v>
       </c>
       <c r="B21" t="n">
         <v>2.216</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.21940541267395</v>
+        <v>2.224844455718994</v>
       </c>
       <c r="B22" t="n">
         <v>2.225</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.224362134933472</v>
+        <v>2.230712890625</v>
       </c>
       <c r="B23" t="n">
         <v>2.227</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.23308277130127</v>
+        <v>2.235786199569702</v>
       </c>
       <c r="B24" t="n">
         <v>2.232</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.245519638061523</v>
+        <v>2.245085477828979</v>
       </c>
       <c r="B25" t="n">
         <v>2.239</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.2597336769104</v>
+        <v>2.255898952484131</v>
       </c>
       <c r="B26" t="n">
         <v>2.252</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.273064851760864</v>
+        <v>2.269929647445679</v>
       </c>
       <c r="B27" t="n">
         <v>2.269</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.282242059707642</v>
+        <v>2.283511400222778</v>
       </c>
       <c r="B28" t="n">
         <v>2.284</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.285270690917969</v>
+        <v>2.293483257293701</v>
       </c>
       <c r="B29" t="n">
         <v>2.295</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.285045862197876</v>
+        <v>2.297705173492432</v>
       </c>
       <c r="B30" t="n">
         <v>2.3</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.280811071395874</v>
+        <v>2.293129444122314</v>
       </c>
       <c r="B31" t="n">
         <v>2.296</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.268750429153442</v>
+        <v>2.283087253570557</v>
       </c>
       <c r="B32" t="n">
         <v>2.286</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.251457214355469</v>
+        <v>2.273763179779053</v>
       </c>
       <c r="B33" t="n">
         <v>2.276</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.235744714736938</v>
+        <v>2.262194395065308</v>
       </c>
       <c r="B34" t="n">
         <v>2.265</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.227840423583984</v>
+        <v>2.252885580062866</v>
       </c>
       <c r="B35" t="n">
         <v>2.256</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.228692531585693</v>
+        <v>2.247014999389648</v>
       </c>
       <c r="B36" t="n">
         <v>2.249</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.232351303100586</v>
+        <v>2.241814374923706</v>
       </c>
       <c r="B37" t="n">
         <v>2.24</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.232728242874146</v>
+        <v>2.241586685180664</v>
       </c>
       <c r="B38" t="n">
         <v>2.243</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.2270348072052</v>
+        <v>2.245991706848145</v>
       </c>
       <c r="B39" t="n">
         <v>2.245</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.219529867172241</v>
+        <v>2.253769397735596</v>
       </c>
       <c r="B40" t="n">
         <v>2.25</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.215956687927246</v>
+        <v>2.254976987838745</v>
       </c>
       <c r="B41" t="n">
         <v>2.254</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.216573715209961</v>
+        <v>2.247839689254761</v>
       </c>
       <c r="B42" t="n">
         <v>2.249</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2.218188285827637</v>
+        <v>2.234463930130005</v>
       </c>
       <c r="B43" t="n">
         <v>2.241</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.218638896942139</v>
+        <v>2.229634284973145</v>
       </c>
       <c r="B44" t="n">
         <v>2.235</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.219622850418091</v>
+        <v>2.226718187332153</v>
       </c>
       <c r="B45" t="n">
         <v>2.231</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2.222802639007568</v>
+        <v>2.228612661361694</v>
       </c>
       <c r="B46" t="n">
         <v>2.228</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2.225765228271484</v>
+        <v>2.22563648223877</v>
       </c>
       <c r="B47" t="n">
         <v>2.226</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.227139234542847</v>
+        <v>2.227903127670288</v>
       </c>
       <c r="B48" t="n">
         <v>2.227</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.228324890136719</v>
+        <v>2.23315691947937</v>
       </c>
       <c r="B49" t="n">
         <v>2.236</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.230351209640503</v>
+        <v>2.24589729309082</v>
       </c>
       <c r="B50" t="n">
         <v>2.252</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.231920719146729</v>
+        <v>2.260939836502075</v>
       </c>
       <c r="B51" t="n">
         <v>2.266</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.231533527374268</v>
+        <v>2.272209644317627</v>
       </c>
       <c r="B52" t="n">
         <v>2.28</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.233648300170898</v>
+        <v>2.285197496414185</v>
       </c>
       <c r="B53" t="n">
         <v>2.287</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.242968559265137</v>
+        <v>2.293501615524292</v>
       </c>
       <c r="B54" t="n">
         <v>2.294</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.256826162338257</v>
+        <v>2.301031827926636</v>
       </c>
       <c r="B55" t="n">
         <v>2.304</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.270207405090332</v>
+        <v>2.30726957321167</v>
       </c>
       <c r="B56" t="n">
         <v>2.306</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.279692888259888</v>
+        <v>2.304624795913696</v>
       </c>
       <c r="B57" t="n">
         <v>2.303</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.282422542572021</v>
+        <v>2.298594951629639</v>
       </c>
       <c r="B58" t="n">
         <v>2.296</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.280701637268066</v>
+        <v>2.290545225143433</v>
       </c>
       <c r="B59" t="n">
         <v>2.286</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.279354572296143</v>
+        <v>2.285768270492554</v>
       </c>
       <c r="B60" t="n">
         <v>2.281</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.284866094589233</v>
+        <v>2.28439998626709</v>
       </c>
       <c r="B61" t="n">
         <v>2.279</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.300434112548828</v>
+        <v>2.292385578155518</v>
       </c>
       <c r="B62" t="n">
         <v>2.286</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.32172417640686</v>
+        <v>2.310930013656616</v>
       </c>
       <c r="B63" t="n">
         <v>2.308</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.340081691741943</v>
+        <v>2.335732698440552</v>
       </c>
       <c r="B64" t="n">
         <v>2.332</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.351021528244019</v>
+        <v>2.359260082244873</v>
       </c>
       <c r="B65" t="n">
         <v>2.359</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.356407403945923</v>
+        <v>2.373109102249146</v>
       </c>
       <c r="B66" t="n">
         <v>2.369</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.357236623764038</v>
+        <v>2.366399526596069</v>
       </c>
       <c r="B67" t="n">
         <v>2.367</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.350358009338379</v>
+        <v>2.341894388198853</v>
       </c>
       <c r="B68" t="n">
         <v>2.342</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.32971715927124</v>
+        <v>2.299606084823608</v>
       </c>
       <c r="B69" t="n">
         <v>2.301</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.291421413421631</v>
+        <v>2.246339559555054</v>
       </c>
       <c r="B70" t="n">
         <v>2.247</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.240378856658936</v>
+        <v>2.188129425048828</v>
       </c>
       <c r="B71" t="n">
         <v>2.191</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.190612316131592</v>
+        <v>2.136319637298584</v>
       </c>
       <c r="B72" t="n">
         <v>2.139</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.153256177902222</v>
+        <v>2.099917888641357</v>
       </c>
       <c r="B73" t="n">
         <v>2.099</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.131599426269531</v>
+        <v>2.076986789703369</v>
       </c>
       <c r="B74" t="n">
         <v>2.076</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.122509002685547</v>
+        <v>2.068981409072876</v>
       </c>
       <c r="B75" t="n">
         <v>2.069</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.123061656951904</v>
+        <v>2.073853492736816</v>
       </c>
       <c r="B76" t="n">
         <v>2.073</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.128229856491089</v>
+        <v>2.08075737953186</v>
       </c>
       <c r="B77" t="n">
         <v>2.08</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.13512396812439</v>
+        <v>2.093585252761841</v>
       </c>
       <c r="B78" t="n">
         <v>2.094</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.143569231033325</v>
+        <v>2.104581594467163</v>
       </c>
       <c r="B79" t="n">
         <v>2.104</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.15299916267395</v>
+        <v>2.116390466690063</v>
       </c>
       <c r="B80" t="n">
         <v>2.118</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.162586450576782</v>
+        <v>2.132160186767578</v>
       </c>
       <c r="B81" t="n">
         <v>2.134</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.168694734573364</v>
+        <v>2.145819664001465</v>
       </c>
       <c r="B82" t="n">
         <v>2.149</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.168667316436768</v>
+        <v>2.159976005554199</v>
       </c>
       <c r="B83" t="n">
         <v>2.164</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.163079261779785</v>
+        <v>2.172095060348511</v>
       </c>
       <c r="B84" t="n">
         <v>2.175</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.158215999603271</v>
+        <v>2.177512168884277</v>
       </c>
       <c r="B85" t="n">
         <v>2.174</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.159244298934937</v>
+        <v>2.172408819198608</v>
       </c>
       <c r="B86" t="n">
         <v>2.172</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.167901039123535</v>
+        <v>2.178168296813965</v>
       </c>
       <c r="B87" t="n">
         <v>2.175</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.182687759399414</v>
+        <v>2.186647891998291</v>
       </c>
       <c r="B88" t="n">
         <v>2.184</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.197290182113647</v>
+        <v>2.196770906448364</v>
       </c>
       <c r="B89" t="n">
         <v>2.197</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.207780599594116</v>
+        <v>2.199489593505859</v>
       </c>
       <c r="B90" t="n">
         <v>2.199</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.215900897979736</v>
+        <v>2.196044683456421</v>
       </c>
       <c r="B91" t="n">
         <v>2.196</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.221043348312378</v>
+        <v>2.192326307296753</v>
       </c>
       <c r="B92" t="n">
         <v>2.189</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.220227241516113</v>
+        <v>2.192387580871582</v>
       </c>
       <c r="B93" t="n">
         <v>2.186</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.211417198181152</v>
+        <v>2.193678617477417</v>
       </c>
       <c r="B94" t="n">
         <v>2.185</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.199470996856689</v>
+        <v>2.192164897918701</v>
       </c>
       <c r="B95" t="n">
         <v>2.181</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.19586706161499</v>
+        <v>2.187336921691895</v>
       </c>
       <c r="B96" t="n">
         <v>2.183</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.206220149993896</v>
+        <v>2.197576761245728</v>
       </c>
       <c r="B97" t="n">
         <v>2.189</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.225511789321899</v>
+        <v>2.213575839996338</v>
       </c>
       <c r="B98" t="n">
         <v>2.209</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.246329784393311</v>
+        <v>2.240199327468872</v>
       </c>
       <c r="B99" t="n">
         <v>2.234</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.264943361282349</v>
+        <v>2.261481285095215</v>
       </c>
       <c r="B100" t="n">
         <v>2.26</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.283013582229614</v>
+        <v>2.280811071395874</v>
       </c>
       <c r="B101" t="n">
         <v>2.281</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.300801038742065</v>
+        <v>2.303992748260498</v>
       </c>
       <c r="B102" t="n">
         <v>2.306</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2.315726041793823</v>
+        <v>2.327393770217896</v>
       </c>
       <c r="B103" t="n">
         <v>2.332</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.322115898132324</v>
+        <v>2.341154813766479</v>
       </c>
       <c r="B104" t="n">
         <v>2.345</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.315641403198242</v>
+        <v>2.337795257568359</v>
       </c>
       <c r="B105" t="n">
         <v>2.344</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2.298715591430664</v>
+        <v>2.315663814544678</v>
       </c>
       <c r="B106" t="n">
         <v>2.321</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.278936386108398</v>
+        <v>2.282509088516235</v>
       </c>
       <c r="B107" t="n">
         <v>2.281</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.262830018997192</v>
+        <v>2.244808673858643</v>
       </c>
       <c r="B108" t="n">
         <v>2.245</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.249125957489014</v>
+        <v>2.218895673751831</v>
       </c>
       <c r="B109" t="n">
         <v>2.218</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.233179569244385</v>
+        <v>2.20398211479187</v>
       </c>
       <c r="B110" t="n">
         <v>2.206</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.216577529907227</v>
+        <v>2.212061405181885</v>
       </c>
       <c r="B111" t="n">
         <v>2.213</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.20601487159729</v>
+        <v>2.226712465286255</v>
       </c>
       <c r="B112" t="n">
         <v>2.225</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.205369472503662</v>
+        <v>2.244440078735352</v>
       </c>
       <c r="B113" t="n">
         <v>2.245</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.213139057159424</v>
+        <v>2.254518508911133</v>
       </c>
       <c r="B114" t="n">
         <v>2.261</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.228616714477539</v>
+        <v>2.265561580657959</v>
       </c>
       <c r="B115" t="n">
         <v>2.267</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.250690460205078</v>
+        <v>2.273627758026123</v>
       </c>
       <c r="B116" t="n">
         <v>2.28</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.273420810699463</v>
+        <v>2.284793615341187</v>
       </c>
       <c r="B117" t="n">
         <v>2.287</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.292330980300903</v>
+        <v>2.294527530670166</v>
       </c>
       <c r="B118" t="n">
         <v>2.296</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.307996034622192</v>
+        <v>2.300326347351074</v>
       </c>
       <c r="B119" t="n">
         <v>2.3</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.320063829421997</v>
+        <v>2.297769784927368</v>
       </c>
       <c r="B120" t="n">
         <v>2.298</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.323103666305542</v>
+        <v>2.283400535583496</v>
       </c>
       <c r="B121" t="n">
         <v>2.283</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.310464143753052</v>
+        <v>2.261253833770752</v>
       </c>
       <c r="B122" t="n">
         <v>2.262</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.284102439880371</v>
+        <v>2.230839252471924</v>
       </c>
       <c r="B123" t="n">
         <v>2.239</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.24960470199585</v>
+        <v>2.208184719085693</v>
       </c>
       <c r="B124" t="n">
         <v>2.21</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.213104963302612</v>
+        <v>2.189200878143311</v>
       </c>
       <c r="B125" t="n">
         <v>2.192</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.187280178070068</v>
+        <v>2.180583715438843</v>
       </c>
       <c r="B126" t="n">
         <v>2.183</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.179229259490967</v>
+        <v>2.177273750305176</v>
       </c>
       <c r="B127" t="n">
         <v>2.179</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.183112621307373</v>
+        <v>2.183964490890503</v>
       </c>
       <c r="B128" t="n">
         <v>2.184</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.190845012664795</v>
+        <v>2.18919563293457</v>
       </c>
       <c r="B129" t="n">
         <v>2.187</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.200184106826782</v>
+        <v>2.19417142868042</v>
       </c>
       <c r="B130" t="n">
         <v>2.196</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.20861291885376</v>
+        <v>2.195574998855591</v>
       </c>
       <c r="B131" t="n">
         <v>2.195</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.213483095169067</v>
+        <v>2.187476873397827</v>
       </c>
       <c r="B132" t="n">
         <v>2.188</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.21186089515686</v>
+        <v>2.172564029693604</v>
       </c>
       <c r="B133" t="n">
         <v>2.169</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.201039791107178</v>
+        <v>2.157601594924927</v>
       </c>
       <c r="B134" t="n">
         <v>2.157</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.189198017120361</v>
+        <v>2.145831823348999</v>
       </c>
       <c r="B135" t="n">
         <v>2.148</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.188830375671387</v>
+        <v>2.152989625930786</v>
       </c>
       <c r="B136" t="n">
         <v>2.157</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.206632852554321</v>
+        <v>2.181236028671265</v>
       </c>
       <c r="B137" t="n">
         <v>2.182</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.237069129943848</v>
+        <v>2.214386463165283</v>
       </c>
       <c r="B138" t="n">
         <v>2.216</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.262630462646484</v>
+        <v>2.25049352645874</v>
       </c>
       <c r="B139" t="n">
         <v>2.249</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.269047498703003</v>
+        <v>2.26636528968811</v>
       </c>
       <c r="B140" t="n">
         <v>2.271</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.256794214248657</v>
+        <v>2.272014856338501</v>
       </c>
       <c r="B141" t="n">
         <v>2.271</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.23895263671875</v>
+        <v>2.268610715866089</v>
       </c>
       <c r="B142" t="n">
         <v>2.269</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.226327419281006</v>
+        <v>2.256078481674194</v>
       </c>
       <c r="B143" t="n">
         <v>2.257</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.221080303192139</v>
+        <v>2.252660989761353</v>
       </c>
       <c r="B144" t="n">
         <v>2.254</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.226706504821777</v>
+        <v>2.263091087341309</v>
       </c>
       <c r="B145" t="n">
         <v>2.265</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.246010303497314</v>
+        <v>2.280338525772095</v>
       </c>
       <c r="B146" t="n">
         <v>2.28</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2.275484800338745</v>
+        <v>2.299479961395264</v>
       </c>
       <c r="B147" t="n">
         <v>2.303</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.310683965682983</v>
+        <v>2.321157932281494</v>
       </c>
       <c r="B148" t="n">
         <v>2.321</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2.34542441368103</v>
+        <v>2.336307287216187</v>
       </c>
       <c r="B149" t="n">
         <v>2.338</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.373498439788818</v>
+        <v>2.348297357559204</v>
       </c>
       <c r="B150" t="n">
         <v>2.35</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2.384571075439453</v>
+        <v>2.351347208023071</v>
       </c>
       <c r="B151" t="n">
         <v>2.356</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2.372771978378296</v>
+        <v>2.356431484222412</v>
       </c>
       <c r="B152" t="n">
         <v>2.358</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.343163013458252</v>
+        <v>2.346441268920898</v>
       </c>
       <c r="B153" t="n">
         <v>2.347</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2.304631233215332</v>
+        <v>2.324759483337402</v>
       </c>
       <c r="B154" t="n">
         <v>2.326</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2.266614198684692</v>
+        <v>2.295747756958008</v>
       </c>
       <c r="B155" t="n">
         <v>2.293</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2.235892057418823</v>
+        <v>2.26525616645813</v>
       </c>
       <c r="B156" t="n">
         <v>2.263</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.215784311294556</v>
+        <v>2.242444753646851</v>
       </c>
       <c r="B157" t="n">
         <v>2.237</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.203729629516602</v>
+        <v>2.224192142486572</v>
       </c>
       <c r="B158" t="n">
         <v>2.222</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.195532083511353</v>
+        <v>2.204877614974976</v>
       </c>
       <c r="B159" t="n">
         <v>2.206</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.192317962646484</v>
+        <v>2.191157579421997</v>
       </c>
       <c r="B160" t="n">
         <v>2.192</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.194278240203857</v>
+        <v>2.178054332733154</v>
       </c>
       <c r="B161" t="n">
         <v>2.182</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2.19597315788269</v>
+        <v>2.177014350891113</v>
       </c>
       <c r="B162" t="n">
         <v>2.178</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2.186957120895386</v>
+        <v>2.180249452590942</v>
       </c>
       <c r="B163" t="n">
         <v>2.18</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.163142442703247</v>
+        <v>2.182616472244263</v>
       </c>
       <c r="B164" t="n">
         <v>2.183</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2.138648509979248</v>
+        <v>2.178033828735352</v>
       </c>
       <c r="B165" t="n">
         <v>2.179</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2.128906488418579</v>
+        <v>2.166024208068848</v>
       </c>
       <c r="B166" t="n">
         <v>2.171</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.134648561477661</v>
+        <v>2.152126312255859</v>
       </c>
       <c r="B167" t="n">
         <v>2.153</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2.147380113601685</v>
+        <v>2.140698671340942</v>
       </c>
       <c r="B168" t="n">
         <v>2.139</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.159965038299561</v>
+        <v>2.132418632507324</v>
       </c>
       <c r="B169" t="n">
         <v>2.131</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2.167033195495605</v>
+        <v>2.12688422203064</v>
       </c>
       <c r="B170" t="n">
         <v>2.126</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2.168769121170044</v>
+        <v>2.132610321044922</v>
       </c>
       <c r="B171" t="n">
         <v>2.133</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2.168527126312256</v>
+        <v>2.146568775177002</v>
       </c>
       <c r="B172" t="n">
         <v>2.146</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.172784090042114</v>
+        <v>2.164749145507812</v>
       </c>
       <c r="B173" t="n">
         <v>2.167</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.182151317596436</v>
+        <v>2.181092739105225</v>
       </c>
       <c r="B174" t="n">
         <v>2.183</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2.19517707824707</v>
+        <v>2.189001083374023</v>
       </c>
       <c r="B175" t="n">
         <v>2.193</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2.209113597869873</v>
+        <v>2.196123838424683</v>
       </c>
       <c r="B176" t="n">
         <v>2.196</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2.223871946334839</v>
+        <v>2.201350450515747</v>
       </c>
       <c r="B177" t="n">
         <v>2.204</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2.23866868019104</v>
+        <v>2.208371162414551</v>
       </c>
       <c r="B178" t="n">
         <v>2.208</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2.248217582702637</v>
+        <v>2.216757774353027</v>
       </c>
       <c r="B179" t="n">
         <v>2.215</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.250027656555176</v>
+        <v>2.228548288345337</v>
       </c>
       <c r="B180" t="n">
         <v>2.225</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.245864152908325</v>
+        <v>2.240664958953857</v>
       </c>
       <c r="B181" t="n">
         <v>2.237</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.241933822631836</v>
+        <v>2.253232002258301</v>
       </c>
       <c r="B182" t="n">
         <v>2.245</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.245351791381836</v>
+        <v>2.258561372756958</v>
       </c>
       <c r="B183" t="n">
         <v>2.26</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.258193731307983</v>
+        <v>2.265012264251709</v>
       </c>
       <c r="B184" t="n">
         <v>2.263</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.273534774780273</v>
+        <v>2.271567106246948</v>
       </c>
       <c r="B185" t="n">
         <v>2.267</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2.28197979927063</v>
+        <v>2.276542901992798</v>
       </c>
       <c r="B186" t="n">
         <v>2.272</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2.278724670410156</v>
+        <v>2.284137725830078</v>
       </c>
       <c r="B187" t="n">
         <v>2.278</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2.265593767166138</v>
+        <v>2.295579433441162</v>
       </c>
       <c r="B188" t="n">
         <v>2.296</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.252062797546387</v>
+        <v>2.313805341720581</v>
       </c>
       <c r="B189" t="n">
         <v>2.314</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2.251278877258301</v>
+        <v>2.333584547042847</v>
       </c>
       <c r="B190" t="n">
         <v>2.336</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2.27077841758728</v>
+        <v>2.345504283905029</v>
       </c>
       <c r="B191" t="n">
         <v>2.35</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2.305351734161377</v>
+        <v>2.34620475769043</v>
       </c>
       <c r="B192" t="n">
         <v>2.35</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.338765144348145</v>
+        <v>2.328819036483765</v>
       </c>
       <c r="B193" t="n">
         <v>2.337</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2.353505611419678</v>
+        <v>2.312078237533569</v>
       </c>
       <c r="B194" t="n">
         <v>2.317</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.343046188354492</v>
+        <v>2.298875570297241</v>
       </c>
       <c r="B195" t="n">
         <v>2.301</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2.318034648895264</v>
+        <v>2.288620948791504</v>
       </c>
       <c r="B196" t="n">
         <v>2.289</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2.296615362167358</v>
+        <v>2.282107830047607</v>
       </c>
       <c r="B197" t="n">
         <v>2.281</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2.285212993621826</v>
+        <v>2.275955677032471</v>
       </c>
       <c r="B198" t="n">
         <v>2.279</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.280020713806152</v>
+        <v>2.269204139709473</v>
       </c>
       <c r="B199" t="n">
         <v>2.275</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2.273429870605469</v>
+        <v>2.264290332794189</v>
       </c>
       <c r="B200" t="n">
         <v>2.27</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.262040376663208</v>
+        <v>2.261557579040527</v>
       </c>
       <c r="B201" t="n">
         <v>2.263</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2.246619462966919</v>
+        <v>2.261557579040527</v>
       </c>
       <c r="B202" t="n">
         <v>2.255</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2.230103015899658</v>
+        <v>2.258833646774292</v>
       </c>
       <c r="B203" t="n">
         <v>2.25</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.214522123336792</v>
+        <v>2.253678560256958</v>
       </c>
       <c r="B204" t="n">
         <v>2.244</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.202855348587036</v>
+        <v>2.249207258224487</v>
       </c>
       <c r="B205" t="n">
         <v>2.248</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2.198923587799072</v>
+        <v>2.247859239578247</v>
       </c>
       <c r="B206" t="n">
         <v>2.255</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.202111482620239</v>
+        <v>2.248776435852051</v>
       </c>
       <c r="B207" t="n">
         <v>2.276</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2.202721834182739</v>
+        <v>2.248109817504883</v>
       </c>
       <c r="B208" t="n">
         <v>2.302</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2.193128824234009</v>
+        <v>2.243983268737793</v>
       </c>
       <c r="B209" t="n">
         <v>2.325</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2.182755470275879</v>
+        <v>2.236583232879639</v>
       </c>
       <c r="B210" t="n">
         <v>2.345</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2.185759782791138</v>
+        <v>2.228068828582764</v>
       </c>
       <c r="B211" t="n">
         <v>2.342</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2.209555864334106</v>
+        <v>2.221781492233276</v>
       </c>
       <c r="B212" t="n">
         <v>2.338</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2.249261856079102</v>
+        <v>2.222466230392456</v>
       </c>
       <c r="B213" t="n">
         <v>2.33</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>2.289717674255371</v>
+        <v>2.230663061141968</v>
       </c>
       <c r="B214" t="n">
         <v>2.315</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2.316354990005493</v>
+        <v>2.239394426345825</v>
       </c>
       <c r="B215" t="n">
         <v>2.311</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2.326536178588867</v>
+        <v>2.243381500244141</v>
       </c>
       <c r="B216" t="n">
         <v>2.314</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2.328829050064087</v>
+        <v>2.244237184524536</v>
       </c>
       <c r="B217" t="n">
         <v>2.336</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2.329752922058105</v>
+        <v>2.250430583953857</v>
       </c>
       <c r="B218" t="n">
         <v>2.36</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2.331533193588257</v>
+        <v>2.267463445663452</v>
       </c>
       <c r="B219" t="n">
         <v>2.377</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2.325757265090942</v>
+        <v>2.292018413543701</v>
       </c>
       <c r="B220" t="n">
         <v>2.374</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.303874969482422</v>
+        <v>2.311972618103027</v>
       </c>
       <c r="B221" t="n">
         <v>2.365</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2.272248506546021</v>
+        <v>2.315151453018188</v>
       </c>
       <c r="B222" t="n">
         <v>2.363</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>2.247265815734863</v>
+        <v>2.301666259765625</v>
       </c>
       <c r="B223" t="n">
         <v>2.384</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2.240029335021973</v>
+        <v>2.282675743103027</v>
       </c>
       <c r="B224" t="n">
         <v>2.419</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2.250328063964844</v>
+        <v>2.27044153213501</v>
       </c>
       <c r="B225" t="n">
         <v>2.448</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2.269831418991089</v>
+        <v>2.27403712272644</v>
       </c>
       <c r="B226" t="n">
         <v>2.454</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2.287897348403931</v>
+        <v>2.295248985290527</v>
       </c>
       <c r="B227" t="n">
         <v>2.442</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>2.298897504806519</v>
+        <v>2.328737258911133</v>
       </c>
       <c r="B228" t="n">
         <v>2.416</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.305113554000854</v>
+        <v>2.357840061187744</v>
       </c>
       <c r="B229" t="n">
         <v>2.399</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.30462121963501</v>
+        <v>2.365206718444824</v>
       </c>
       <c r="B230" t="n">
         <v>2.375</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.298628091812134</v>
+        <v>2.347952842712402</v>
       </c>
       <c r="B231" t="n">
         <v>2.35</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.292769432067871</v>
+        <v>2.319837093353271</v>
       </c>
       <c r="B232" t="n">
         <v>2.326</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2.291969299316406</v>
+        <v>2.297689914703369</v>
       </c>
       <c r="B233" t="n">
         <v>2.296</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2.296433687210083</v>
+        <v>2.288383960723877</v>
       </c>
       <c r="B234" t="n">
         <v>2.282</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2.297519207000732</v>
+        <v>2.286220073699951</v>
       </c>
       <c r="B235" t="n">
         <v>2.276</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2.290390729904175</v>
+        <v>2.279727697372437</v>
       </c>
       <c r="B236" t="n">
         <v>2.265</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>2.276333808898926</v>
+        <v>2.263898372650146</v>
       </c>
       <c r="B237" t="n">
         <v>2.251</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2.262773036956787</v>
+        <v>2.245316982269287</v>
       </c>
       <c r="B238" t="n">
         <v>2.231</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2.259341716766357</v>
+        <v>2.230590343475342</v>
       </c>
       <c r="B239" t="n">
         <v>2.215</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2.263550281524658</v>
+        <v>2.21994423866272</v>
       </c>
       <c r="B240" t="n">
         <v>2.211</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.264865398406982</v>
+        <v>2.209434270858765</v>
       </c>
       <c r="B241" t="n">
         <v>2.212</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2.252559185028076</v>
+        <v>2.201910018920898</v>
       </c>
       <c r="B242" t="n">
         <v>2.226</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2.229753017425537</v>
+        <v>2.201636075973511</v>
       </c>
       <c r="B243" t="n">
         <v>2.245</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2.206181526184082</v>
+        <v>2.206764459609985</v>
       </c>
       <c r="B244" t="n">
         <v>2.258</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2.187877178192139</v>
+        <v>2.212568283081055</v>
       </c>
       <c r="B245" t="n">
         <v>2.265</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2.177938222885132</v>
+        <v>2.213335037231445</v>
       </c>
       <c r="B246" t="n">
         <v>2.26</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2.176961183547974</v>
+        <v>2.206944942474365</v>
       </c>
       <c r="B247" t="n">
         <v>2.279</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2.182946920394897</v>
+        <v>2.199292898178101</v>
       </c>
       <c r="B248" t="n">
         <v>2.285</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2.193295955657959</v>
+        <v>2.197267532348633</v>
       </c>
       <c r="B249" t="n">
         <v>2.278</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2.205425024032593</v>
+        <v>2.202327251434326</v>
       </c>
       <c r="B250" t="n">
         <v>2.287</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2.214228868484497</v>
+        <v>2.209173679351807</v>
       </c>
       <c r="B251" t="n">
         <v>2.291</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.219923257827759</v>
+        <v>2.212240695953369</v>
       </c>
       <c r="B252" t="n">
         <v>2.296</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2.226087093353271</v>
+        <v>2.214076519012451</v>
       </c>
       <c r="B253" t="n">
         <v>2.3</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.236049890518188</v>
+        <v>2.221997022628784</v>
       </c>
       <c r="B254" t="n">
         <v>2.304</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.251973628997803</v>
+        <v>2.236958980560303</v>
       </c>
       <c r="B255" t="n">
         <v>2.299</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.27055835723877</v>
+        <v>2.249923229217529</v>
       </c>
       <c r="B256" t="n">
         <v>2.288</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>2.284491062164307</v>
+        <v>2.250361442565918</v>
       </c>
       <c r="B257" t="n">
         <v>2.279</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2.282984733581543</v>
+        <v>2.240373373031616</v>
       </c>
       <c r="B258" t="n">
         <v>2.253</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2.260698318481445</v>
+        <v>2.230672597885132</v>
       </c>
       <c r="B259" t="n">
         <v>2.229</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>2.230013608932495</v>
+        <v>2.230174779891968</v>
       </c>
       <c r="B260" t="n">
         <v>2.191</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2.207501411437988</v>
+        <v>2.236095905303955</v>
       </c>
       <c r="B261" t="n">
         <v>2.156</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2.198667526245117</v>
+        <v>2.240377426147461</v>
       </c>
       <c r="B262" t="n">
         <v>2.124</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>2.200227975845337</v>
+        <v>2.239012479782104</v>
       </c>
       <c r="B263" t="n">
         <v>2.102</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2.211437940597534</v>
+        <v>2.235644340515137</v>
       </c>
       <c r="B264" t="n">
         <v>2.097</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2.230249881744385</v>
+        <v>2.238927602767944</v>
       </c>
       <c r="B265" t="n">
         <v>2.109</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2.248358964920044</v>
+        <v>2.250611305236816</v>
       </c>
       <c r="B266" t="n">
         <v>2.145</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2.254486799240112</v>
+        <v>2.264030933380127</v>
       </c>
       <c r="B267" t="n">
         <v>2.19</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2.246334314346313</v>
+        <v>2.266071796417236</v>
       </c>
       <c r="B268" t="n">
         <v>2.231</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2.235911846160889</v>
+        <v>2.251993179321289</v>
       </c>
       <c r="B269" t="n">
         <v>2.254</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>2.235875606536865</v>
+        <v>2.230947494506836</v>
       </c>
       <c r="B270" t="n">
         <v>2.26</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2.246629238128662</v>
+        <v>2.219801902770996</v>
       </c>
       <c r="B271" t="n">
         <v>2.27</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2.259302377700806</v>
+        <v>2.229568719863892</v>
       </c>
       <c r="B272" t="n">
         <v>2.285</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.269538164138794</v>
+        <v>2.25734543800354</v>
       </c>
       <c r="B273" t="n">
         <v>2.302</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2.280318260192871</v>
+        <v>2.287415027618408</v>
       </c>
       <c r="B274" t="n">
         <v>2.308</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2.292727708816528</v>
+        <v>2.303025722503662</v>
       </c>
       <c r="B275" t="n">
         <v>2.3</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2.302417755126953</v>
+        <v>2.301460266113281</v>
       </c>
       <c r="B276" t="n">
         <v>2.281</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2.301525831222534</v>
+        <v>2.293120861053467</v>
       </c>
       <c r="B277" t="n">
         <v>2.268</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.290170431137085</v>
+        <v>2.288454294204712</v>
       </c>
       <c r="B278" t="n">
         <v>2.257</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2.274467468261719</v>
+        <v>2.286609411239624</v>
       </c>
       <c r="B279" t="n">
         <v>2.257</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.262934923171997</v>
+        <v>2.280129909515381</v>
       </c>
       <c r="B280" t="n">
         <v>2.256</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2.259511470794678</v>
+        <v>2.262607097625732</v>
       </c>
       <c r="B281" t="n">
         <v>2.258</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2.261706590652466</v>
+        <v>2.241226196289062</v>
       </c>
       <c r="B282" t="n">
         <v>2.263</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2.260727882385254</v>
+        <v>2.228536128997803</v>
       </c>
       <c r="B283" t="n">
         <v>2.27</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2.254002094268799</v>
+        <v>2.229462862014771</v>
       </c>
       <c r="B284" t="n">
         <v>2.276</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2.24614405632019</v>
+        <v>2.237014770507812</v>
       </c>
       <c r="B285" t="n">
         <v>2.279</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2.243158340454102</v>
+        <v>2.241718769073486</v>
       </c>
       <c r="B286" t="n">
         <v>2.294</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2.246228218078613</v>
+        <v>2.241496562957764</v>
       </c>
       <c r="B287" t="n">
         <v>2.307</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2.253522872924805</v>
+        <v>2.243500232696533</v>
       </c>
       <c r="B288" t="n">
         <v>2.325</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2.260408401489258</v>
+        <v>2.253909349441528</v>
       </c>
       <c r="B289" t="n">
         <v>2.33</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2.262451887130737</v>
+        <v>2.270758867263794</v>
       </c>
       <c r="B290" t="n">
         <v>2.322</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2.258560180664062</v>
+        <v>2.282259702682495</v>
       </c>
       <c r="B291" t="n">
         <v>2.297</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2.25025749206543</v>
+        <v>2.277949333190918</v>
       </c>
       <c r="B292" t="n">
         <v>2.269</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2.242912769317627</v>
+        <v>2.259045362472534</v>
       </c>
       <c r="B293" t="n">
         <v>2.251</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>2.240028381347656</v>
+        <v>2.239508628845215</v>
       </c>
       <c r="B294" t="n">
         <v>2.251</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2.24242091178894</v>
+        <v>2.233788967132568</v>
       </c>
       <c r="B295" t="n">
         <v>2.26</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2.248625516891479</v>
+        <v>2.243757724761963</v>
       </c>
       <c r="B296" t="n">
         <v>2.272</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2.258501052856445</v>
+        <v>2.259243488311768</v>
       </c>
       <c r="B297" t="n">
         <v>2.271</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2.267602443695068</v>
+        <v>2.26960301399231</v>
       </c>
       <c r="B298" t="n">
         <v>2.265</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2.270103216171265</v>
+        <v>2.271031379699707</v>
       </c>
       <c r="B299" t="n">
         <v>2.244</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2.265499114990234</v>
+        <v>2.26833438873291</v>
       </c>
       <c r="B300" t="n">
         <v>2.227</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2.258490562438965</v>
+        <v>2.269093990325928</v>
       </c>
       <c r="B301" t="n">
         <v>2.222</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.256566286087036</v>
+        <v>2.278361082077026</v>
       </c>
       <c r="B302" t="n">
         <v>2.222</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2.264139890670776</v>
+        <v>2.29149866104126</v>
       </c>
       <c r="B303" t="n">
         <v>2.248</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2.280498743057251</v>
+        <v>2.301751375198364</v>
       </c>
       <c r="B304" t="n">
         <v>2.263</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2.296432733535767</v>
+        <v>2.308576583862305</v>
       </c>
       <c r="B305" t="n">
         <v>2.267</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2.302173376083374</v>
+        <v>2.31719446182251</v>
       </c>
       <c r="B306" t="n">
         <v>2.25</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2.295318603515625</v>
+        <v>2.329728841781616</v>
       </c>
       <c r="B307" t="n">
         <v>2.221</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2.28187108039856</v>
+        <v>2.341100215911865</v>
       </c>
       <c r="B308" t="n">
         <v>2.199</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2.269761562347412</v>
+        <v>2.344635009765625</v>
       </c>
       <c r="B309" t="n">
         <v>2.191</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2.26185417175293</v>
+        <v>2.334104061126709</v>
       </c>
       <c r="B310" t="n">
         <v>2.21</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2.255942821502686</v>
+        <v>2.31225323677063</v>
       </c>
       <c r="B311" t="n">
         <v>2.233</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2.255034446716309</v>
+        <v>2.293412923812866</v>
       </c>
       <c r="B312" t="n">
         <v>2.251</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2.261344909667969</v>
+        <v>2.289410352706909</v>
       </c>
       <c r="B313" t="n">
         <v>2.245</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2.269956350326538</v>
+        <v>2.297489881515503</v>
       </c>
       <c r="B314" t="n">
         <v>2.232</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2.272217988967896</v>
+        <v>2.301976442337036</v>
       </c>
       <c r="B315" t="n">
         <v>2.215</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2.265465259552002</v>
+        <v>2.293656349182129</v>
       </c>
       <c r="B316" t="n">
         <v>2.21</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2.255290031433105</v>
+        <v>2.277068138122559</v>
       </c>
       <c r="B317" t="n">
         <v>2.208</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2.255918502807617</v>
+        <v>2.262872934341431</v>
       </c>
       <c r="B318" t="n">
         <v>2.217</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>2.271805047988892</v>
+        <v>2.254467725753784</v>
       </c>
       <c r="B319" t="n">
         <v>2.225</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>2.290779590606689</v>
+        <v>2.249638795852661</v>
       </c>
       <c r="B320" t="n">
         <v>2.239</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2.297009468078613</v>
+        <v>2.244392156600952</v>
       </c>
       <c r="B321" t="n">
         <v>2.253</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>2.297009468078613</v>
+        <v>2.234490871429443</v>
       </c>
       <c r="B322" t="n">
         <v>2.253</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2.291073560714722</v>
+        <v>2.224600076675415</v>
       </c>
       <c r="B323" t="n">
         <v>2.267</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2.275657176971436</v>
+        <v>2.22287130355835</v>
       </c>
       <c r="B324" t="n">
         <v>2.278</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2.257720232009888</v>
+        <v>2.230635643005371</v>
       </c>
       <c r="B325" t="n">
         <v>2.294</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2.245681762695312</v>
+        <v>2.244949102401733</v>
       </c>
       <c r="B326" t="n">
         <v>2.32</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.233478784561157</v>
+        <v>2.257953405380249</v>
       </c>
       <c r="B327" t="n">
         <v>2.345</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2.22201681137085</v>
+        <v>2.264494180679321</v>
       </c>
       <c r="B328" t="n">
         <v>2.352</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2.210900545120239</v>
+        <v>2.265396595001221</v>
       </c>
       <c r="B329" t="n">
         <v>2.339</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2.205924034118652</v>
+        <v>2.266105890274048</v>
       </c>
       <c r="B330" t="n">
         <v>2.328</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2.214410543441772</v>
+        <v>2.268364191055298</v>
       </c>
       <c r="B331" t="n">
         <v>2.311</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2.236485004425049</v>
+        <v>2.272690773010254</v>
       </c>
       <c r="B332" t="n">
         <v>2.292</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2.259847164154053</v>
+        <v>2.279378890991211</v>
       </c>
       <c r="B333" t="n">
         <v>2.277</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2.269267082214355</v>
+        <v>2.28595757484436</v>
       </c>
       <c r="B334" t="n">
         <v>2.267</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2.262519359588623</v>
+        <v>2.2867271900177</v>
       </c>
       <c r="B335" t="n">
         <v>2.283</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>2.253780841827393</v>
+        <v>2.286080121994019</v>
       </c>
       <c r="B336" t="n">
         <v>2.314</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2.248592376708984</v>
+        <v>2.291405916213989</v>
       </c>
       <c r="B337" t="n">
         <v>2.34</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>2.263898134231567</v>
+        <v>2.302507638931274</v>
       </c>
       <c r="B338" t="n">
         <v>2.349</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2.286707878112793</v>
+        <v>2.316596984863281</v>
       </c>
       <c r="B339" t="n">
         <v>2.35</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2.308655261993408</v>
+        <v>2.330235481262207</v>
       </c>
       <c r="B340" t="n">
         <v>2.358</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>2.303872108459473</v>
+        <v>2.340768814086914</v>
       </c>
       <c r="B341" t="n">
         <v>2.383</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2.286554098129272</v>
+        <v>2.34727144241333</v>
       </c>
       <c r="B342" t="n">
         <v>2.392</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2.269217014312744</v>
+        <v>2.349642038345337</v>
       </c>
       <c r="B343" t="n">
         <v>2.386</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2.267410755157471</v>
+        <v>2.34734058380127</v>
       </c>
       <c r="B344" t="n">
         <v>2.352</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2.281434059143066</v>
+        <v>2.34054970741272</v>
       </c>
       <c r="B345" t="n">
         <v>2.315</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2.296866416931152</v>
+        <v>2.334025621414185</v>
       </c>
       <c r="B346" t="n">
         <v>2.27</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2.306558132171631</v>
+        <v>2.329872608184814</v>
       </c>
       <c r="B347" t="n">
         <v>2.236</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2.312882900238037</v>
+        <v>2.329365015029907</v>
       </c>
       <c r="B348" t="n">
         <v>2.21</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2.318714141845703</v>
+        <v>2.329227924346924</v>
       </c>
       <c r="B349" t="n">
         <v>2.206</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2.324520587921143</v>
+        <v>2.326903581619263</v>
       </c>
       <c r="B350" t="n">
         <v>2.21</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2.32458233833313</v>
+        <v>2.321180820465088</v>
       </c>
       <c r="B351" t="n">
         <v>2.217</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2.311506748199463</v>
+        <v>2.316086292266846</v>
       </c>
       <c r="B352" t="n">
         <v>2.225</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2.299007177352905</v>
+        <v>2.314853668212891</v>
       </c>
       <c r="B353" t="n">
         <v>2.242</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2.286391973495483</v>
+        <v>2.315882444381714</v>
       </c>
       <c r="B354" t="n">
         <v>2.266</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2.283132553100586</v>
+        <v>2.314607858657837</v>
       </c>
       <c r="B355" t="n">
         <v>2.28</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2.292801856994629</v>
+        <v>2.308789968490601</v>
       </c>
       <c r="B356" t="n">
         <v>2.282</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2.306118011474609</v>
+        <v>2.299237012863159</v>
       </c>
       <c r="B357" t="n">
         <v>2.287</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2.320268392562866</v>
+        <v>2.28790283203125</v>
       </c>
       <c r="B358" t="n">
         <v>2.301</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2.328714370727539</v>
+        <v>2.278119802474976</v>
       </c>
       <c r="B359" t="n">
         <v>2.319</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2.331532716751099</v>
+        <v>2.272151470184326</v>
       </c>
       <c r="B360" t="n">
         <v>2.323</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2.327651739120483</v>
+        <v>2.272184610366821</v>
       </c>
       <c r="B361" t="n">
         <v>2.314</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2.318520545959473</v>
+        <v>2.281506776809692</v>
       </c>
       <c r="B362" t="n">
         <v>2.306</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2.303133010864258</v>
+        <v>2.296919345855713</v>
       </c>
       <c r="B363" t="n">
         <v>2.299</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2.294129133224487</v>
+        <v>2.309032917022705</v>
       </c>
       <c r="B364" t="n">
         <v>2.3</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2.287435054779053</v>
+        <v>2.309644937515259</v>
       </c>
       <c r="B365" t="n">
         <v>2.295</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>2.291821956634521</v>
+        <v>2.298340082168579</v>
       </c>
       <c r="B366" t="n">
         <v>2.297</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2.286664724349976</v>
+        <v>2.280548572540283</v>
       </c>
       <c r="B367" t="n">
         <v>2.302</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2.276819944381714</v>
+        <v>2.262062549591064</v>
       </c>
       <c r="B368" t="n">
         <v>2.315</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>2.24872088432312</v>
+        <v>2.24346923828125</v>
       </c>
       <c r="B369" t="n">
         <v>2.334</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2.224546432495117</v>
+        <v>2.226782560348511</v>
       </c>
       <c r="B370" t="n">
         <v>2.356</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2.210800170898438</v>
+        <v>2.215851306915283</v>
       </c>
       <c r="B371" t="n">
         <v>2.377</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2.204581260681152</v>
+        <v>2.214082002639771</v>
       </c>
       <c r="B372" t="n">
         <v>2.399</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2.206938743591309</v>
+        <v>2.21840238571167</v>
       </c>
       <c r="B373" t="n">
         <v>2.416</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>2.205671072006226</v>
+        <v>2.221793651580811</v>
       </c>
       <c r="B374" t="n">
         <v>2.44</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2.207260847091675</v>
+        <v>2.219980716705322</v>
       </c>
       <c r="B375" t="n">
         <v>2.459</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2.21801233291626</v>
+        <v>2.212276935577393</v>
       </c>
       <c r="B376" t="n">
         <v>2.463</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>2.233997344970703</v>
+        <v>2.204772472381592</v>
       </c>
       <c r="B377" t="n">
         <v>2.449</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>2.247415065765381</v>
+        <v>2.204381942749023</v>
       </c>
       <c r="B378" t="n">
         <v>2.427</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>2.251906871795654</v>
+        <v>2.217495441436768</v>
       </c>
       <c r="B379" t="n">
         <v>2.407</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>2.249238252639771</v>
+        <v>2.241494178771973</v>
       </c>
       <c r="B380" t="n">
         <v>2.394</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>2.24219799041748</v>
+        <v>2.264124870300293</v>
       </c>
       <c r="B381" t="n">
         <v>2.378</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>2.238157987594604</v>
+        <v>2.279795169830322</v>
       </c>
       <c r="B382" t="n">
         <v>2.354</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>2.24214506149292</v>
+        <v>2.290266036987305</v>
       </c>
       <c r="B383" t="n">
         <v>2.335</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2.250158548355103</v>
+        <v>2.298914909362793</v>
       </c>
       <c r="B384" t="n">
         <v>2.317</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>2.258159160614014</v>
+        <v>2.309643268585205</v>
       </c>
       <c r="B385" t="n">
         <v>2.3</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>2.265360116958618</v>
+        <v>2.32269287109375</v>
       </c>
       <c r="B386" t="n">
         <v>2.289</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>2.266289234161377</v>
+        <v>2.329051971435547</v>
       </c>
       <c r="B387" t="n">
         <v>2.279</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>2.263943672180176</v>
+        <v>2.317133665084839</v>
       </c>
       <c r="B388" t="n">
         <v>2.267</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>2.253802061080933</v>
+        <v>2.290648460388184</v>
       </c>
       <c r="B389" t="n">
         <v>2.25</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>2.243663549423218</v>
+        <v>2.268548488616943</v>
       </c>
       <c r="B390" t="n">
         <v>2.235</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>2.237116813659668</v>
+        <v>2.264340400695801</v>
       </c>
       <c r="B391" t="n">
         <v>2.215</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>2.24160623550415</v>
+        <v>2.273868799209595</v>
       </c>
       <c r="B392" t="n">
         <v>2.207</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>2.251599788665771</v>
+        <v>2.283309936523438</v>
       </c>
       <c r="B393" t="n">
         <v>2.222</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>2.257603168487549</v>
+        <v>2.280460596084595</v>
       </c>
       <c r="B394" t="n">
         <v>2.239</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2.261961936950684</v>
+        <v>2.268099784851074</v>
       </c>
       <c r="B395" t="n">
         <v>2.261</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2.267083644866943</v>
+        <v>2.260566711425781</v>
       </c>
       <c r="B396" t="n">
         <v>2.272</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2.27286434173584</v>
+        <v>2.267205238342285</v>
       </c>
       <c r="B397" t="n">
         <v>2.296</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>2.280339479446411</v>
+        <v>2.284533500671387</v>
       </c>
       <c r="B398" t="n">
         <v>2.326</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>2.283945798873901</v>
+        <v>2.300948619842529</v>
       </c>
       <c r="B399" t="n">
         <v>2.356</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2.277158260345459</v>
+        <v>2.302236080169678</v>
       </c>
       <c r="B400" t="n">
         <v>2.385</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>2.261965751647949</v>
+        <v>2.281952857971191</v>
       </c>
       <c r="B401" t="n">
         <v>2.408</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>2.22982382774353</v>
+        <v>2.250620365142822</v>
       </c>
       <c r="B402" t="n">
         <v>2.425</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>2.20389986038208</v>
+        <v>2.22249436378479</v>
       </c>
       <c r="B403" t="n">
         <v>2.427</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>2.192586660385132</v>
+        <v>2.205337285995483</v>
       </c>
       <c r="B404" t="n">
         <v>2.422</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>2.197567224502563</v>
+        <v>2.202899932861328</v>
       </c>
       <c r="B405" t="n">
         <v>2.424</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>2.205496788024902</v>
+        <v>2.211836814880371</v>
       </c>
       <c r="B406" t="n">
         <v>2.432</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>2.213485240936279</v>
+        <v>2.2229163646698</v>
       </c>
       <c r="B407" t="n">
         <v>2.437</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>2.210930585861206</v>
+        <v>2.233072280883789</v>
       </c>
       <c r="B408" t="n">
         <v>2.437</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>2.202793598175049</v>
+        <v>2.242247104644775</v>
       </c>
       <c r="B409" t="n">
         <v>2.435</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>2.201064586639404</v>
+        <v>2.24788236618042</v>
       </c>
       <c r="B410" t="n">
         <v>2.43</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>2.205469608306885</v>
+        <v>2.246539115905762</v>
       </c>
       <c r="B411" t="n">
         <v>2.425</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>2.211195707321167</v>
+        <v>2.238213062286377</v>
       </c>
       <c r="B412" t="n">
         <v>2.427</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>2.215250968933105</v>
+        <v>2.228512763977051</v>
       </c>
       <c r="B413" t="n">
         <v>2.438</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>2.210321664810181</v>
+        <v>2.224565505981445</v>
       </c>
       <c r="B414" t="n">
         <v>2.45</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>2.214508295059204</v>
+        <v>2.230188846588135</v>
       </c>
       <c r="B415" t="n">
         <v>2.46</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>2.22156810760498</v>
+        <v>2.246263265609741</v>
       </c>
       <c r="B416" t="n">
         <v>2.46</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>2.242837905883789</v>
+        <v>2.269224882125854</v>
       </c>
       <c r="B417" t="n">
         <v>2.455</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>2.252015113830566</v>
+        <v>2.291003704071045</v>
       </c>
       <c r="B418" t="n">
         <v>2.449</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>2.256789684295654</v>
+        <v>2.30169415473938</v>
       </c>
       <c r="B419" t="n">
         <v>2.442</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2.252234697341919</v>
+        <v>2.297343730926514</v>
       </c>
       <c r="B420" t="n">
         <v>2.433</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>2.250898838043213</v>
+        <v>2.28624439239502</v>
       </c>
       <c r="B421" t="n">
         <v>2.434</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>2.260888814926147</v>
+        <v>2.276542901992798</v>
       </c>
       <c r="B422" t="n">
         <v>2.433</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2.271239042282104</v>
+        <v>2.273313522338867</v>
       </c>
       <c r="B423" t="n">
         <v>2.425</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2.279308795928955</v>
+        <v>2.278438568115234</v>
       </c>
       <c r="B424" t="n">
         <v>2.418</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>2.284842967987061</v>
+        <v>2.29335355758667</v>
       </c>
       <c r="B425" t="n">
         <v>2.418</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>2.293607234954834</v>
+        <v>2.31605052947998</v>
       </c>
       <c r="B426" t="n">
         <v>2.421</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>2.300844669342041</v>
+        <v>2.336769104003906</v>
       </c>
       <c r="B427" t="n">
         <v>2.431</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>2.295742511749268</v>
+        <v>2.341367721557617</v>
       </c>
       <c r="B428" t="n">
         <v>2.439</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>2.27903938293457</v>
+        <v>2.321485280990601</v>
       </c>
       <c r="B429" t="n">
         <v>2.444</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>2.253406286239624</v>
+        <v>2.28510570526123</v>
       </c>
       <c r="B430" t="n">
         <v>2.44</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>2.242923021316528</v>
+        <v>2.249078273773193</v>
       </c>
       <c r="B431" t="n">
         <v>2.428</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>2.244655132293701</v>
+        <v>2.229887247085571</v>
       </c>
       <c r="B432" t="n">
         <v>2.4</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>2.261607885360718</v>
+        <v>2.228415727615356</v>
       </c>
       <c r="B433" t="n">
         <v>2.37</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>2.274620294570923</v>
+        <v>2.233736276626587</v>
       </c>
       <c r="B434" t="n">
         <v>2.341</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>2.279973745346069</v>
+        <v>2.238277435302734</v>
       </c>
       <c r="B435" t="n">
         <v>2.316</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>2.270137548446655</v>
+        <v>2.243193864822388</v>
       </c>
       <c r="B436" t="n">
         <v>2.299</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>2.263662099838257</v>
+        <v>2.252850770950317</v>
       </c>
       <c r="B437" t="n">
         <v>2.296</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>2.262502431869507</v>
+        <v>2.270030975341797</v>
       </c>
       <c r="B438" t="n">
         <v>2.307</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>2.268443584442139</v>
+        <v>2.288162469863892</v>
       </c>
       <c r="B439" t="n">
         <v>2.322</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>2.275475025177002</v>
+        <v>2.298710823059082</v>
       </c>
       <c r="B440" t="n">
         <v>2.342</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>2.270472526550293</v>
+        <v>2.294372320175171</v>
       </c>
       <c r="B441" t="n">
         <v>2.363</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>2.253097057342529</v>
+        <v>2.275007963180542</v>
       </c>
       <c r="B442" t="n">
         <v>2.385</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.223483800888062</v>
+        <v>2.251681804656982</v>
       </c>
       <c r="B443" t="n">
         <v>2.403</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>2.203432321548462</v>
+        <v>2.237442493438721</v>
       </c>
       <c r="B444" t="n">
         <v>2.423</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>2.197915315628052</v>
+        <v>2.238327741622925</v>
       </c>
       <c r="B445" t="n">
         <v>2.447</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>2.205059289932251</v>
+        <v>2.246153593063354</v>
       </c>
       <c r="B446" t="n">
         <v>2.473</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>2.215092658996582</v>
+        <v>2.250000238418579</v>
       </c>
       <c r="B447" t="n">
         <v>2.495</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>2.2287437915802</v>
+        <v>2.248189926147461</v>
       </c>
       <c r="B448" t="n">
         <v>2.51</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>2.236937284469604</v>
+        <v>2.248384475708008</v>
       </c>
       <c r="B449" t="n">
         <v>2.513</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2.246145963668823</v>
+        <v>2.258757591247559</v>
       </c>
       <c r="B450" t="n">
         <v>2.509</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>2.254815101623535</v>
+        <v>2.275613069534302</v>
       </c>
       <c r="B451" t="n">
         <v>2.5</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>2.250863790512085</v>
+        <v>2.284059047698975</v>
       </c>
       <c r="B452" t="n">
         <v>2.489</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>2.234902381896973</v>
+        <v>2.27007007598877</v>
       </c>
       <c r="B453" t="n">
         <v>2.478</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>2.216902256011963</v>
+        <v>2.240785121917725</v>
       </c>
       <c r="B454" t="n">
         <v>2.469</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>2.203852415084839</v>
+        <v>2.218567609786987</v>
       </c>
       <c r="B455" t="n">
         <v>2.456</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>2.20719838142395</v>
+        <v>2.215651988983154</v>
       </c>
       <c r="B456" t="n">
         <v>2.434</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>2.217555999755859</v>
+        <v>2.224617481231689</v>
       </c>
       <c r="B457" t="n">
         <v>2.404</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>2.222092866897583</v>
+        <v>2.234041929244995</v>
       </c>
       <c r="B458" t="n">
         <v>2.365</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>2.223852634429932</v>
+        <v>2.237827301025391</v>
       </c>
       <c r="B459" t="n">
         <v>2.325</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>2.220579385757446</v>
+        <v>2.240275859832764</v>
       </c>
       <c r="B460" t="n">
         <v>2.291</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>2.235239744186401</v>
+        <v>2.254676103591919</v>
       </c>
       <c r="B461" t="n">
         <v>2.269</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>2.263499736785889</v>
+        <v>2.281803131103516</v>
       </c>
       <c r="B462" t="n">
         <v>2.265</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>2.287169933319092</v>
+        <v>2.309091091156006</v>
       </c>
       <c r="B463" t="n">
         <v>2.275</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>2.302131652832031</v>
+        <v>2.321049928665161</v>
       </c>
       <c r="B464" t="n">
         <v>2.293</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>2.3082115650177</v>
+        <v>2.316584587097168</v>
       </c>
       <c r="B465" t="n">
         <v>2.307</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>2.298922061920166</v>
+        <v>2.3061363697052</v>
       </c>
       <c r="B466" t="n">
         <v>2.314</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>2.289281368255615</v>
+        <v>2.299188375473022</v>
       </c>
       <c r="B467" t="n">
         <v>2.315</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>2.285335063934326</v>
+        <v>2.298496007919312</v>
       </c>
       <c r="B468" t="n">
         <v>2.319</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>2.284757137298584</v>
+        <v>2.301680564880371</v>
       </c>
       <c r="B469" t="n">
         <v>2.321</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>2.283187627792358</v>
+        <v>2.306425809860229</v>
       </c>
       <c r="B470" t="n">
         <v>2.32</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>2.273283004760742</v>
+        <v>2.310541391372681</v>
       </c>
       <c r="B471" t="n">
         <v>2.316</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>2.262311697006226</v>
+        <v>2.307941198348999</v>
       </c>
       <c r="B472" t="n">
         <v>2.31</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>2.243821144104004</v>
+        <v>2.294703483581543</v>
       </c>
       <c r="B473" t="n">
         <v>2.31</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>2.227690458297729</v>
+        <v>2.275985717773438</v>
       </c>
       <c r="B474" t="n">
         <v>2.309</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>2.223377227783203</v>
+        <v>2.26063346862793</v>
       </c>
       <c r="B475" t="n">
         <v>2.313</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>2.233578681945801</v>
+        <v>2.25619101524353</v>
       </c>
       <c r="B476" t="n">
         <v>2.311</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>2.247979879379272</v>
+        <v>2.261115550994873</v>
       </c>
       <c r="B477" t="n">
         <v>2.302</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>2.26443338394165</v>
+        <v>2.269482135772705</v>
       </c>
       <c r="B478" t="n">
         <v>2.291</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>2.275876045227051</v>
+        <v>2.277482748031616</v>
       </c>
       <c r="B479" t="n">
         <v>2.281</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>2.293309688568115</v>
+        <v>2.285358667373657</v>
       </c>
       <c r="B480" t="n">
         <v>2.286</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>2.303659915924072</v>
+        <v>2.293359041213989</v>
       </c>
       <c r="B481" t="n">
         <v>2.296</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>2.308253765106201</v>
+        <v>2.298657178878784</v>
       </c>
       <c r="B482" t="n">
         <v>2.298</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>2.302009582519531</v>
+        <v>2.297639846801758</v>
       </c>
       <c r="B483" t="n">
         <v>2.29</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>2.285223245620728</v>
+        <v>2.288193702697754</v>
       </c>
       <c r="B484" t="n">
         <v>2.268</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>2.262835264205933</v>
+        <v>2.272274494171143</v>
       </c>
       <c r="B485" t="n">
         <v>2.251</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>2.246230363845825</v>
+        <v>2.25627875328064</v>
       </c>
       <c r="B486" t="n">
         <v>2.239</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>2.239349842071533</v>
+        <v>2.248441934585571</v>
       </c>
       <c r="B487" t="n">
         <v>2.242</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>2.24604344367981</v>
+        <v>2.253697872161865</v>
       </c>
       <c r="B488" t="n">
         <v>2.259</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>2.260845899581909</v>
+        <v>2.270675182342529</v>
       </c>
       <c r="B489" t="n">
         <v>2.279</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>2.271850824356079</v>
+        <v>2.290328025817871</v>
       </c>
       <c r="B490" t="n">
         <v>2.297</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>2.272629261016846</v>
+        <v>2.300719738006592</v>
       </c>
       <c r="B491" t="n">
         <v>2.309</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>2.262266874313354</v>
+        <v>2.29659366607666</v>
       </c>
       <c r="B492" t="n">
         <v>2.316</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>2.244415998458862</v>
+        <v>2.280439376831055</v>
       </c>
       <c r="B493" t="n">
         <v>2.323</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>2.230638742446899</v>
+        <v>2.260667562484741</v>
       </c>
       <c r="B494" t="n">
         <v>2.326</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>2.221379518508911</v>
+        <v>2.245871782302856</v>
       </c>
       <c r="B495" t="n">
         <v>2.319</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>2.224608182907104</v>
+        <v>2.241018056869507</v>
       </c>
       <c r="B496" t="n">
         <v>2.302</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>2.2309889793396</v>
+        <v>2.244920253753662</v>
       </c>
       <c r="B497" t="n">
         <v>2.294</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>2.242685317993164</v>
+        <v>2.254758596420288</v>
       </c>
       <c r="B498" t="n">
         <v>2.298</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>2.257904291152954</v>
+        <v>2.267138004302979</v>
       </c>
       <c r="B499" t="n">
         <v>2.316</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>2.274050235748291</v>
+        <v>2.278667449951172</v>
       </c>
       <c r="B500" t="n">
         <v>2.336</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>2.286995887756348</v>
+        <v>2.287055253982544</v>
       </c>
       <c r="B501" t="n">
         <v>2.363</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>2.295278549194336</v>
+        <v>2.291471481323242</v>
       </c>
       <c r="B502" t="n">
         <v>2.38</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>2.287900447845459</v>
+        <v>2.293924570083618</v>
       </c>
       <c r="B503" t="n">
         <v>2.39</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>2.279887676239014</v>
+        <v>2.294065237045288</v>
       </c>
       <c r="B504" t="n">
         <v>2.389</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>2.278380393981934</v>
+        <v>2.289934396743774</v>
       </c>
       <c r="B505" t="n">
         <v>2.392</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>2.28025484085083</v>
+        <v>2.284042358398438</v>
       </c>
       <c r="B506" t="n">
         <v>2.397</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>2.282305240631104</v>
+        <v>2.28003978729248</v>
       </c>
       <c r="B507" t="n">
         <v>2.402</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>2.280802965164185</v>
+        <v>2.281192302703857</v>
       </c>
       <c r="B508" t="n">
         <v>2.4</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>2.279812812805176</v>
+        <v>2.288282871246338</v>
       </c>
       <c r="B509" t="n">
         <v>2.397</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>2.28826642036438</v>
+        <v>2.300576686859131</v>
       </c>
       <c r="B510" t="n">
         <v>2.388</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>2.307134389877319</v>
+        <v>2.319785833358765</v>
       </c>
       <c r="B511" t="n">
         <v>2.379</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>2.334549188613892</v>
+        <v>2.341378211975098</v>
       </c>
       <c r="B512" t="n">
         <v>2.358</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>2.348685264587402</v>
+        <v>2.354979991912842</v>
       </c>
       <c r="B513" t="n">
         <v>2.342</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>2.347591161727905</v>
+        <v>2.351038217544556</v>
       </c>
       <c r="B514" t="n">
         <v>2.328</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>2.326690912246704</v>
+        <v>2.333264589309692</v>
       </c>
       <c r="B515" t="n">
         <v>2.319</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>2.305595397949219</v>
+        <v>2.314754247665405</v>
       </c>
       <c r="B516" t="n">
         <v>2.308</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>2.298666954040527</v>
+        <v>2.310622692108154</v>
       </c>
       <c r="B517" t="n">
         <v>2.304</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>2.319385290145874</v>
+        <v>2.325989007949829</v>
       </c>
       <c r="B518" t="n">
         <v>2.304</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>2.343186140060425</v>
+        <v>2.347458839416504</v>
       </c>
       <c r="B519" t="n">
         <v>2.311</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>2.352763175964355</v>
+        <v>2.356463670730591</v>
       </c>
       <c r="B520" t="n">
         <v>2.33</v>
